--- a/testdata/Opencart_Testdata.xlsx
+++ b/testdata/Opencart_Testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh\eclipse-workspace\Opencart-CucumberFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72995058-A9C3-4BEF-859F-650D99F667BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7931C89-3249-4383-B2CD-86662FD7D5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{C25B3EBA-FC6D-4CA0-B815-305889E32E4E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C25B3EBA-FC6D-4CA0-B815-305889E32E4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -504,7 +504,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">

--- a/testdata/Opencart_Testdata.xlsx
+++ b/testdata/Opencart_Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh\eclipse-workspace\Opencart-CucumberFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7931C89-3249-4383-B2CD-86662FD7D5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84B7A4B-D4B0-4724-ABBE-11B8B3F6E85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C25B3EBA-FC6D-4CA0-B815-305889E32E4E}"/>
   </bookViews>
@@ -504,7 +504,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -515,7 +515,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
